--- a/data/checked/china/zhejiang/zhejiangCaseStatistics_20200406.xlsx
+++ b/data/checked/china/zhejiang/zhejiangCaseStatistics_20200406.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/COV/zhejiang/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\checked\china\zhejiang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD59FA6-B86D-024E-A98A-4E22B2908FDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D3BB3A-4D5B-4901-9F39-89E57AB046ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10685,12 +10685,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="新数据表"/>
       <sheetName val="中国各省市区县数据"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10956,49 +10954,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC38" sqref="AC38"/>
+    <sheetView tabSelected="1" topLeftCell="H13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="11.84375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="45.84375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="31.84375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="31.84375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.15234375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="27.3046875" style="12" customWidth="1"/>
     <col min="7" max="7" width="44" style="12" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="12" customWidth="1"/>
-    <col min="9" max="12" width="12.5" style="12" customWidth="1"/>
-    <col min="13" max="15" width="21.33203125" style="14" customWidth="1"/>
-    <col min="16" max="19" width="12.5" style="12" customWidth="1"/>
-    <col min="20" max="20" width="17.6640625" style="12" customWidth="1"/>
-    <col min="21" max="21" width="20.83203125" style="12" customWidth="1"/>
-    <col min="22" max="22" width="19.1640625" style="12" customWidth="1"/>
-    <col min="23" max="24" width="26.6640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="16.15234375" style="12" customWidth="1"/>
+    <col min="9" max="12" width="12.4609375" style="12" customWidth="1"/>
+    <col min="13" max="15" width="21.3046875" style="14" customWidth="1"/>
+    <col min="16" max="19" width="12.4609375" style="12" customWidth="1"/>
+    <col min="20" max="20" width="17.69140625" style="12" customWidth="1"/>
+    <col min="21" max="21" width="20.84375" style="12" customWidth="1"/>
+    <col min="22" max="22" width="19.15234375" style="12" customWidth="1"/>
+    <col min="23" max="24" width="26.69140625" style="12" customWidth="1"/>
     <col min="25" max="25" width="7" style="12" customWidth="1"/>
-    <col min="26" max="26" width="31.83203125" style="13" customWidth="1"/>
+    <col min="26" max="26" width="31.84375" style="13" customWidth="1"/>
     <col min="27" max="27" width="18" style="12" customWidth="1"/>
-    <col min="28" max="28" width="10.6640625" style="12" customWidth="1"/>
-    <col min="29" max="29" width="31.83203125" style="12" customWidth="1"/>
-    <col min="30" max="30" width="16.1640625" style="12" customWidth="1"/>
+    <col min="28" max="28" width="10.69140625" style="12" customWidth="1"/>
+    <col min="29" max="29" width="31.84375" style="12" customWidth="1"/>
+    <col min="30" max="30" width="16.15234375" style="12" customWidth="1"/>
     <col min="31" max="31" width="20" style="12" customWidth="1"/>
-    <col min="32" max="32" width="31.83203125" style="12" customWidth="1"/>
-    <col min="33" max="33" width="21.83203125" style="12" customWidth="1"/>
-    <col min="34" max="34" width="20.83203125" style="12" customWidth="1"/>
-    <col min="35" max="35" width="25.5" style="12" customWidth="1"/>
-    <col min="36" max="36" width="31.83203125" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.83203125" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.5" style="12" customWidth="1"/>
+    <col min="32" max="32" width="31.84375" style="12" customWidth="1"/>
+    <col min="33" max="33" width="21.84375" style="12" customWidth="1"/>
+    <col min="34" max="34" width="20.84375" style="12" customWidth="1"/>
+    <col min="35" max="35" width="25.4609375" style="12" customWidth="1"/>
+    <col min="36" max="36" width="31.84375" style="12" customWidth="1"/>
+    <col min="37" max="37" width="21.84375" style="12" customWidth="1"/>
+    <col min="38" max="38" width="24.4609375" style="12" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="8.83203125" style="12" customWidth="1"/>
-    <col min="41" max="42" width="31.83203125" style="12" customWidth="1"/>
-    <col min="43" max="43" width="21.83203125" style="12" customWidth="1"/>
-    <col min="44" max="44" width="24.5" style="12" customWidth="1"/>
+    <col min="40" max="40" width="8.84375" style="12" customWidth="1"/>
+    <col min="41" max="42" width="31.84375" style="12" customWidth="1"/>
+    <col min="43" max="43" width="21.84375" style="12" customWidth="1"/>
+    <col min="44" max="44" width="24.4609375" style="12" customWidth="1"/>
     <col min="45" max="45" width="31" style="12" customWidth="1"/>
-    <col min="46" max="46" width="5.1640625" style="12" customWidth="1"/>
-    <col min="47" max="16384" width="10.83203125" style="12"/>
+    <col min="46" max="46" width="5.15234375" style="12" customWidth="1"/>
+    <col min="47" max="16384" width="10.84375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" s="11" customFormat="1">
@@ -13314,7 +13312,9 @@
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
-      <c r="P33" s="22"/>
+      <c r="P33" s="22">
+        <v>1</v>
+      </c>
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
@@ -13389,7 +13389,7 @@
         <v>1</v>
       </c>
       <c r="P34" s="22">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q34" s="22"/>
       <c r="R34" s="22">
@@ -13467,7 +13467,7 @@
         <v>1</v>
       </c>
       <c r="P35" s="22">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="Q35" s="22"/>
       <c r="R35" s="22">
@@ -13589,7 +13589,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{D435F8BA-A393-E84B-9A84-40C3702709EB}">
           <x14:formula1>
-            <xm:f>'/Users/nicole/Desktop/ncp/[zhejiangCaseStatistics_20200211.xlsx]中国各省市区县数据'!#REF!</xm:f>
+            <xm:f>'C:\Users\nicole\Desktop\ncp\[zhejiangCaseStatistics_20200211.xlsx]中国各省市区县数据'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F35</xm:sqref>
         </x14:dataValidation>
@@ -13608,10 +13608,10 @@
       <selection pane="bottomLeft" activeCell="AN1" sqref="AN1:AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
